--- a/Inward/wwwroot/uploads/student.xlsx
+++ b/Inward/wwwroot/uploads/student.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95743371-03C0-4558-BD17-57B3945F3482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2E62B3-A267-496B-B31A-82C0511E38DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3FC02439-C12D-4308-A39C-85A8ABEEB7A4}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>studentid</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -445,14 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4B1D94-687F-43CE-A722-6EE3FAEA73A1}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="B1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
@@ -462,59 +460,53 @@
     <col min="9" max="9" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>6359211356</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>123456</v>
@@ -526,27 +518,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>6359211357</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>123456</v>
@@ -555,6 +544,2819 @@
         <v>123456</v>
       </c>
       <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>6359211358</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>123456</v>
+      </c>
+      <c r="I4">
+        <v>123456</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>6359211359</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>123456</v>
+      </c>
+      <c r="I5">
+        <v>123456</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>6359211360</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>123456</v>
+      </c>
+      <c r="I6">
+        <v>123456</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>6359211361</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>123456</v>
+      </c>
+      <c r="I7">
+        <v>123456</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>6359211362</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>123456</v>
+      </c>
+      <c r="I8">
+        <v>123456</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>6359211363</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>123456</v>
+      </c>
+      <c r="I9">
+        <v>123456</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>6359211364</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>123456</v>
+      </c>
+      <c r="I10">
+        <v>123456</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>6359211365</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>123456</v>
+      </c>
+      <c r="I11">
+        <v>123456</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>6359211366</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>123456</v>
+      </c>
+      <c r="I12">
+        <v>123456</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>6359211367</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>123456</v>
+      </c>
+      <c r="I13">
+        <v>123456</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>6359211368</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>123456</v>
+      </c>
+      <c r="I14">
+        <v>123456</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>6359211369</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>123456</v>
+      </c>
+      <c r="I15">
+        <v>123456</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>6359211370</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>123456</v>
+      </c>
+      <c r="I16">
+        <v>123456</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>6359211371</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>123456</v>
+      </c>
+      <c r="I17">
+        <v>123456</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>6359211372</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>123456</v>
+      </c>
+      <c r="I18">
+        <v>123456</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>6359211373</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>123456</v>
+      </c>
+      <c r="I19">
+        <v>123456</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6359211374</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20">
+        <v>123456</v>
+      </c>
+      <c r="I20">
+        <v>123456</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>6359211375</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>123456</v>
+      </c>
+      <c r="I21">
+        <v>123456</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>6359211376</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>123456</v>
+      </c>
+      <c r="I22">
+        <v>123456</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>6359211377</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>123456</v>
+      </c>
+      <c r="I23">
+        <v>123456</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>6359211378</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>123456</v>
+      </c>
+      <c r="I24">
+        <v>123456</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>6359211379</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>123456</v>
+      </c>
+      <c r="I25">
+        <v>123456</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>6359211380</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <v>123456</v>
+      </c>
+      <c r="I26">
+        <v>123456</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>6359211381</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>123456</v>
+      </c>
+      <c r="I27">
+        <v>123456</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>6359211382</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <v>123456</v>
+      </c>
+      <c r="I28">
+        <v>123456</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>6359211383</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>123456</v>
+      </c>
+      <c r="I29">
+        <v>123456</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>6359211384</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>123456</v>
+      </c>
+      <c r="I30">
+        <v>123456</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>6359211385</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>123456</v>
+      </c>
+      <c r="I31">
+        <v>123456</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>6359211386</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32">
+        <v>123456</v>
+      </c>
+      <c r="I32">
+        <v>123456</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>6359211387</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>123456</v>
+      </c>
+      <c r="I33">
+        <v>123456</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>6359211388</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>123456</v>
+      </c>
+      <c r="I34">
+        <v>123456</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>6359211389</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>123456</v>
+      </c>
+      <c r="I35">
+        <v>123456</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>6359211390</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>123456</v>
+      </c>
+      <c r="I36">
+        <v>123456</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>6359211391</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>123456</v>
+      </c>
+      <c r="I37">
+        <v>123456</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>6359211392</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <v>123456</v>
+      </c>
+      <c r="I38">
+        <v>123456</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>6359211393</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>123456</v>
+      </c>
+      <c r="I39">
+        <v>123456</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>6359211394</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>39</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40">
+        <v>123456</v>
+      </c>
+      <c r="I40">
+        <v>123456</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>6359211395</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41">
+        <v>123456</v>
+      </c>
+      <c r="I41">
+        <v>123456</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>6359211396</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>41</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>123456</v>
+      </c>
+      <c r="I42">
+        <v>123456</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>6359211397</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>123456</v>
+      </c>
+      <c r="I43">
+        <v>123456</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>6359211398</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44">
+        <v>43</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <v>123456</v>
+      </c>
+      <c r="I44">
+        <v>123456</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>6359211399</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>44</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>123456</v>
+      </c>
+      <c r="I45">
+        <v>123456</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>6359211400</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <v>123456</v>
+      </c>
+      <c r="I46">
+        <v>123456</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>6359211401</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47">
+        <v>123456</v>
+      </c>
+      <c r="I47">
+        <v>123456</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>6359211402</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>47</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>123456</v>
+      </c>
+      <c r="I48">
+        <v>123456</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>6359211403</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <v>123456</v>
+      </c>
+      <c r="I49">
+        <v>123456</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>6359211404</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>123456</v>
+      </c>
+      <c r="I50">
+        <v>123456</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>6359211405</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51">
+        <v>123456</v>
+      </c>
+      <c r="I51">
+        <v>123456</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>6359211406</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>51</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <v>123456</v>
+      </c>
+      <c r="I52">
+        <v>123456</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>6359211407</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53">
+        <v>52</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>123456</v>
+      </c>
+      <c r="I53">
+        <v>123456</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>6359211408</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>53</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54">
+        <v>123456</v>
+      </c>
+      <c r="I54">
+        <v>123456</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>6359211409</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55">
+        <v>54</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55">
+        <v>123456</v>
+      </c>
+      <c r="I55">
+        <v>123456</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>6359211410</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56">
+        <v>55</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56">
+        <v>123456</v>
+      </c>
+      <c r="I56">
+        <v>123456</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>6359211411</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57">
+        <v>56</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57">
+        <v>123456</v>
+      </c>
+      <c r="I57">
+        <v>123456</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>6359211412</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58">
+        <v>57</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58">
+        <v>123456</v>
+      </c>
+      <c r="I58">
+        <v>123456</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>6359211413</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <v>58</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59">
+        <v>123456</v>
+      </c>
+      <c r="I59">
+        <v>123456</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>6359211414</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60">
+        <v>59</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <v>123456</v>
+      </c>
+      <c r="I60">
+        <v>123456</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>6359211415</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61">
+        <v>60</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61">
+        <v>123456</v>
+      </c>
+      <c r="I61">
+        <v>123456</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>6359211416</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62">
+        <v>123456</v>
+      </c>
+      <c r="I62">
+        <v>123456</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>6359211417</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63">
+        <v>62</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63">
+        <v>123456</v>
+      </c>
+      <c r="I63">
+        <v>123456</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>6359211418</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64">
+        <v>63</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64">
+        <v>123456</v>
+      </c>
+      <c r="I64">
+        <v>123456</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>6359211419</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65">
+        <v>64</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65">
+        <v>123456</v>
+      </c>
+      <c r="I65">
+        <v>123456</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>6359211420</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66">
+        <v>65</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66">
+        <v>123456</v>
+      </c>
+      <c r="I66">
+        <v>123456</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>6359211421</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <v>66</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67">
+        <v>123456</v>
+      </c>
+      <c r="I67">
+        <v>123456</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>6359211422</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68">
+        <v>67</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68">
+        <v>123456</v>
+      </c>
+      <c r="I68">
+        <v>123456</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>6359211423</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69">
+        <v>68</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69">
+        <v>123456</v>
+      </c>
+      <c r="I69">
+        <v>123456</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>6359211424</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70">
+        <v>69</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70">
+        <v>123456</v>
+      </c>
+      <c r="I70">
+        <v>123456</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>6359211425</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>70</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71">
+        <v>123456</v>
+      </c>
+      <c r="I71">
+        <v>123456</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>6359211426</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72">
+        <v>71</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72">
+        <v>123456</v>
+      </c>
+      <c r="I72">
+        <v>123456</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73">
+        <v>6359211427</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73">
+        <v>72</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73">
+        <v>123456</v>
+      </c>
+      <c r="I73">
+        <v>123456</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>6359211428</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74">
+        <v>73</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74">
+        <v>123456</v>
+      </c>
+      <c r="I74">
+        <v>123456</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>6359211429</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>74</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75">
+        <v>123456</v>
+      </c>
+      <c r="I75">
+        <v>123456</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>6359211430</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76">
+        <v>123456</v>
+      </c>
+      <c r="I76">
+        <v>123456</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>6359211431</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77">
+        <v>76</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77">
+        <v>123456</v>
+      </c>
+      <c r="I77">
+        <v>123456</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>6359211432</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78">
+        <v>77</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78">
+        <v>123456</v>
+      </c>
+      <c r="I78">
+        <v>123456</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79">
+        <v>6359211433</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79">
+        <v>123456</v>
+      </c>
+      <c r="I79">
+        <v>123456</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>6359211434</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80">
+        <v>79</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80">
+        <v>123456</v>
+      </c>
+      <c r="I80">
+        <v>123456</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <v>6359211435</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81">
+        <v>123456</v>
+      </c>
+      <c r="I81">
+        <v>123456</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>6359211436</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82">
+        <v>123456</v>
+      </c>
+      <c r="I82">
+        <v>123456</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>6359211437</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>82</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83">
+        <v>123456</v>
+      </c>
+      <c r="I83">
+        <v>123456</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>6359211438</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <v>83</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84">
+        <v>123456</v>
+      </c>
+      <c r="I84">
+        <v>123456</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>6359211439</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85">
+        <v>84</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85">
+        <v>123456</v>
+      </c>
+      <c r="I85">
+        <v>123456</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>6359211440</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86">
+        <v>85</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86">
+        <v>123456</v>
+      </c>
+      <c r="I86">
+        <v>123456</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>6359211441</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87">
+        <v>86</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87">
+        <v>123456</v>
+      </c>
+      <c r="I87">
+        <v>123456</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>6359211442</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88">
+        <v>87</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88">
+        <v>123456</v>
+      </c>
+      <c r="I88">
+        <v>123456</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>6359211443</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89">
+        <v>123456</v>
+      </c>
+      <c r="I89">
+        <v>123456</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>6359211444</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90">
+        <v>89</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90">
+        <v>123456</v>
+      </c>
+      <c r="I90">
+        <v>123456</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>6359211445</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91">
+        <v>90</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91">
+        <v>123456</v>
+      </c>
+      <c r="I91">
+        <v>123456</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>6359211446</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92">
+        <v>91</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92">
+        <v>123456</v>
+      </c>
+      <c r="I92">
+        <v>123456</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93">
+        <v>6359211447</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93">
+        <v>92</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93">
+        <v>123456</v>
+      </c>
+      <c r="I93">
+        <v>123456</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>6359211448</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94">
+        <v>93</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94">
+        <v>123456</v>
+      </c>
+      <c r="I94">
+        <v>123456</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95">
+        <v>6359211449</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95">
+        <v>94</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95">
+        <v>123456</v>
+      </c>
+      <c r="I95">
+        <v>123456</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>6359211450</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96">
+        <v>95</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96">
+        <v>123456</v>
+      </c>
+      <c r="I96">
+        <v>123456</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97">
+        <v>6359211451</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97">
+        <v>96</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97">
+        <v>123456</v>
+      </c>
+      <c r="I97">
+        <v>123456</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>6359211452</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98">
+        <v>97</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98">
+        <v>123456</v>
+      </c>
+      <c r="I98">
+        <v>123456</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99">
+        <v>6359211453</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99">
+        <v>98</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99">
+        <v>123456</v>
+      </c>
+      <c r="I99">
+        <v>123456</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>6359211454</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100">
+        <v>99</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100">
+        <v>123456</v>
+      </c>
+      <c r="I100">
+        <v>123456</v>
+      </c>
+      <c r="J100">
         <v>1</v>
       </c>
     </row>
@@ -562,6 +3364,103 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{B17A699D-B327-48A3-A811-E5622D56732E}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{576C13BD-C049-4C0E-B672-D39B8C160E5D}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{9DF369FD-996C-4B53-9AAD-EB6E80B67243}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{66F72712-BBFB-45CF-A5E7-4D1C3035A894}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{E9069A07-E429-4404-9828-4F6C4CF3157C}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{057949EB-EE1C-4A97-B502-193687694A69}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{95985EC8-9C6A-4803-9997-E0058D0D075C}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{6FFB31B6-D2CB-447A-9686-61EE29EA19E1}"/>
+    <hyperlink ref="D16" r:id="rId9" xr:uid="{93FE3CAD-B665-4256-95FD-65CDEDBB1896}"/>
+    <hyperlink ref="D18" r:id="rId10" xr:uid="{E6DBE51B-4D3F-4D14-96D0-23BB627F01F4}"/>
+    <hyperlink ref="D20" r:id="rId11" xr:uid="{68F24F5C-3D49-4F2A-8BCF-A9580D539CDF}"/>
+    <hyperlink ref="D22" r:id="rId12" xr:uid="{3EE86EE1-104B-42F3-BEA8-F81151B77B91}"/>
+    <hyperlink ref="D24" r:id="rId13" xr:uid="{B69E5369-815D-4E63-8937-20BB2B34A86D}"/>
+    <hyperlink ref="D5" r:id="rId14" xr:uid="{7719CDFE-B34A-4A03-842C-47CE1A599710}"/>
+    <hyperlink ref="D7" r:id="rId15" xr:uid="{72ABEE18-1E1D-444C-8E43-924DC0342B5B}"/>
+    <hyperlink ref="D9" r:id="rId16" xr:uid="{4DBE9159-45FD-46F8-A460-838FDE6B4FEC}"/>
+    <hyperlink ref="D11" r:id="rId17" xr:uid="{728F85FA-EC2D-47C7-A778-15C4F76BA4E5}"/>
+    <hyperlink ref="D13" r:id="rId18" xr:uid="{B4AEC810-6436-4B8D-9EEA-623C84AC6BA7}"/>
+    <hyperlink ref="D15" r:id="rId19" xr:uid="{7D916707-3BA3-4A85-B720-9B844D1B9DC5}"/>
+    <hyperlink ref="D17" r:id="rId20" xr:uid="{9A68F3AD-D756-4ADF-94DB-816730110EAE}"/>
+    <hyperlink ref="D19" r:id="rId21" xr:uid="{58617F1C-83F7-41A3-AEA8-54A6DB8343E2}"/>
+    <hyperlink ref="D21" r:id="rId22" xr:uid="{00AC18A6-F182-43A9-AD3E-09FD701F78B3}"/>
+    <hyperlink ref="D23" r:id="rId23" xr:uid="{B6A15E87-42D6-4266-9DDB-FDA7236C8307}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{B60A860D-3F51-4F9C-ABAA-05B0CE060D6F}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{81C38DA2-3F39-4572-93F7-076C0FEF6A0B}"/>
+    <hyperlink ref="D50" r:id="rId26" xr:uid="{6F8E920B-6E4F-4C02-A511-07F6AA5D679E}"/>
+    <hyperlink ref="D74" r:id="rId27" xr:uid="{293B16BC-3AFE-4C83-B992-C7DF62D5A015}"/>
+    <hyperlink ref="D98" r:id="rId28" xr:uid="{E5A8F34A-727C-42E7-BF43-019EB9944417}"/>
+    <hyperlink ref="D27" r:id="rId29" xr:uid="{9A3C3D11-8CA3-4817-9E09-4BFA91D5AF8D}"/>
+    <hyperlink ref="D51" r:id="rId30" xr:uid="{E797284B-F43B-4CBB-A0C0-360783F92665}"/>
+    <hyperlink ref="D75" r:id="rId31" xr:uid="{5C8A7577-065E-4000-8CE2-4ECCF22C0154}"/>
+    <hyperlink ref="D99" r:id="rId32" xr:uid="{95DFC709-5364-4AC4-A8B8-AA9E12CB4B4D}"/>
+    <hyperlink ref="D28" r:id="rId33" xr:uid="{1692F5A7-C9DF-4D32-9844-131FFF1D2008}"/>
+    <hyperlink ref="D52" r:id="rId34" xr:uid="{CC2FE53E-39ED-4D6D-A4E4-297735C2A73E}"/>
+    <hyperlink ref="D76" r:id="rId35" xr:uid="{92A81ADB-D9AD-483E-A0A4-6A114DBE1578}"/>
+    <hyperlink ref="D100" r:id="rId36" display="akash10@gmail.com" xr:uid="{34F78949-F36E-4100-82A3-9CC05DBD105A}"/>
+    <hyperlink ref="D30" r:id="rId37" xr:uid="{73DF34A4-D7A9-4EB8-975A-33F6705FFA41}"/>
+    <hyperlink ref="D54" r:id="rId38" xr:uid="{EABE33EF-A695-46CB-94D4-D5E96395350E}"/>
+    <hyperlink ref="D78" r:id="rId39" xr:uid="{2716215F-2D69-4104-9B50-D9E5A014C564}"/>
+    <hyperlink ref="D32" r:id="rId40" xr:uid="{024B0DDC-12DD-4BF0-8F52-A78C2645CF48}"/>
+    <hyperlink ref="D56" r:id="rId41" xr:uid="{1E0BD729-DD58-4656-B49B-EECBC3C86AC5}"/>
+    <hyperlink ref="D80" r:id="rId42" xr:uid="{2D6A9F2A-063B-487D-B6BF-FC6DD2B92940}"/>
+    <hyperlink ref="D34" r:id="rId43" xr:uid="{0CC49F75-D9BF-4DF0-8E2B-5BEEA54EC955}"/>
+    <hyperlink ref="D58" r:id="rId44" xr:uid="{983AE19C-2372-4B80-BF32-AB2C1C9B7584}"/>
+    <hyperlink ref="D82" r:id="rId45" xr:uid="{655637C6-0981-44C2-BD86-F0A1C2D3084C}"/>
+    <hyperlink ref="D36" r:id="rId46" xr:uid="{922F5548-7B93-4986-BBC4-070AE813CB46}"/>
+    <hyperlink ref="D60" r:id="rId47" xr:uid="{AE4714C1-EADC-4D77-B0F1-44D2413A0DED}"/>
+    <hyperlink ref="D84" r:id="rId48" xr:uid="{C472C41E-FA33-4A79-A746-93F856AEA5C5}"/>
+    <hyperlink ref="D38" r:id="rId49" xr:uid="{4D060ED2-A3E3-4CA1-BF7E-25F16A4ED189}"/>
+    <hyperlink ref="D62" r:id="rId50" xr:uid="{99AC861B-A3E3-4292-99B4-37623D65CAEF}"/>
+    <hyperlink ref="D86" r:id="rId51" xr:uid="{ABD354D7-FE30-4D6A-8072-6CBF99F2DFED}"/>
+    <hyperlink ref="D40" r:id="rId52" xr:uid="{226B8768-47EB-4E1D-9182-BF75F9AEAC98}"/>
+    <hyperlink ref="D64" r:id="rId53" xr:uid="{77CE8F92-6CFA-48B5-9BE3-E07E2C6D4D04}"/>
+    <hyperlink ref="D88" r:id="rId54" xr:uid="{FB35660C-3377-48E0-977C-EE385E765603}"/>
+    <hyperlink ref="D42" r:id="rId55" xr:uid="{840FFED1-624F-4F06-AFF0-29F9625A0A1E}"/>
+    <hyperlink ref="D66" r:id="rId56" xr:uid="{AD06541D-6E62-4636-B16C-61D8A7C5C120}"/>
+    <hyperlink ref="D90" r:id="rId57" xr:uid="{989017FD-B5A7-4D4C-B1C0-AB0FCE62B334}"/>
+    <hyperlink ref="D44" r:id="rId58" xr:uid="{3004271C-FBDD-45C1-BA81-2EF54734A5E9}"/>
+    <hyperlink ref="D68" r:id="rId59" xr:uid="{B7EFBE5F-B697-4045-9F31-5D876D1F2635}"/>
+    <hyperlink ref="D92" r:id="rId60" xr:uid="{7C0821E8-4AC9-4FA9-A28D-C3C225CBC3B0}"/>
+    <hyperlink ref="D46" r:id="rId61" xr:uid="{3F513FE4-32C6-4A05-A235-FBD4E97504CB}"/>
+    <hyperlink ref="D70" r:id="rId62" xr:uid="{C36C3981-DB65-4B0B-AAF7-50784A339F79}"/>
+    <hyperlink ref="D94" r:id="rId63" xr:uid="{4DE5DBC0-681B-467C-A690-B05595E730FA}"/>
+    <hyperlink ref="D48" r:id="rId64" xr:uid="{887F20BD-317D-41E9-8A01-012439AABDE1}"/>
+    <hyperlink ref="D72" r:id="rId65" xr:uid="{9B22F51D-1D34-44E6-8D60-445309BFB467}"/>
+    <hyperlink ref="D96" r:id="rId66" xr:uid="{E932108A-A17F-4458-84B9-11E7B918A1F2}"/>
+    <hyperlink ref="D29" r:id="rId67" xr:uid="{C6BA28F5-4D0F-417B-A86A-2E6487650BED}"/>
+    <hyperlink ref="D53" r:id="rId68" xr:uid="{4BE83A37-1AE5-477E-9F62-74A004445E66}"/>
+    <hyperlink ref="D77" r:id="rId69" xr:uid="{9C977B01-3510-4A90-9AA2-5B7F59F8EC97}"/>
+    <hyperlink ref="D31" r:id="rId70" xr:uid="{1CB0584E-31CD-43DE-8FBA-AF7C2CF3D701}"/>
+    <hyperlink ref="D55" r:id="rId71" xr:uid="{D4950FE7-E98E-44E3-8061-622061B76E90}"/>
+    <hyperlink ref="D79" r:id="rId72" xr:uid="{EDD83421-4944-4BFE-A7B3-A4D693F97FC6}"/>
+    <hyperlink ref="D33" r:id="rId73" xr:uid="{658B020F-0FC1-4D61-9159-A59A2CE83BA9}"/>
+    <hyperlink ref="D57" r:id="rId74" xr:uid="{7B908B09-45F8-48C2-B4EF-B779B66E980B}"/>
+    <hyperlink ref="D81" r:id="rId75" xr:uid="{8DE67CDD-06B1-43DE-BD17-D57A766C5552}"/>
+    <hyperlink ref="D35" r:id="rId76" xr:uid="{2DC1D164-0AB2-4FFC-894F-F2A84B28E0EB}"/>
+    <hyperlink ref="D59" r:id="rId77" xr:uid="{D025CAC9-22C0-4399-8C3E-5C2967E8B608}"/>
+    <hyperlink ref="D83" r:id="rId78" xr:uid="{6E949ADD-0F70-43FB-AF5F-528B978AA094}"/>
+    <hyperlink ref="D37" r:id="rId79" xr:uid="{12193A39-642D-412D-8E82-9F1BC8CF0CD7}"/>
+    <hyperlink ref="D61" r:id="rId80" xr:uid="{FAE252F8-D30D-4B37-BD47-78FC8BE84FF6}"/>
+    <hyperlink ref="D85" r:id="rId81" xr:uid="{1804E89F-4D90-4E75-847F-F83326553647}"/>
+    <hyperlink ref="D39" r:id="rId82" xr:uid="{517CCE32-0F92-48C0-B046-DF74AE87C6CC}"/>
+    <hyperlink ref="D63" r:id="rId83" xr:uid="{555CF881-2570-45CB-A6DB-7FBCAD2212C4}"/>
+    <hyperlink ref="D87" r:id="rId84" xr:uid="{27127E29-3EDA-43F4-A066-F00BF2F5A514}"/>
+    <hyperlink ref="D41" r:id="rId85" xr:uid="{A48937A0-C480-4D29-AF00-F2A812740C80}"/>
+    <hyperlink ref="D65" r:id="rId86" xr:uid="{C00F8741-8FA5-441D-885D-3BFE9230B37B}"/>
+    <hyperlink ref="D89" r:id="rId87" xr:uid="{5E59F999-B8C5-4D98-B15B-D00033FF06B6}"/>
+    <hyperlink ref="D43" r:id="rId88" xr:uid="{1DC66ED8-D644-4103-BC08-91A02297EC44}"/>
+    <hyperlink ref="D67" r:id="rId89" xr:uid="{50A6E287-4344-4624-8D1A-8435B3F2B589}"/>
+    <hyperlink ref="D91" r:id="rId90" xr:uid="{6FAB9116-52CD-4F1D-9C94-D92707C9563C}"/>
+    <hyperlink ref="D45" r:id="rId91" xr:uid="{F6C64D5F-2D04-4671-AB60-9F37ABC8C342}"/>
+    <hyperlink ref="D69" r:id="rId92" xr:uid="{2CE3705E-FF66-4D0B-B16C-B5B8CE75645D}"/>
+    <hyperlink ref="D93" r:id="rId93" xr:uid="{1FC058A3-9A3B-44D8-9734-31EB37706130}"/>
+    <hyperlink ref="D47" r:id="rId94" xr:uid="{D3F96B12-1BCE-40B3-B239-DA59DCED65C5}"/>
+    <hyperlink ref="D71" r:id="rId95" xr:uid="{11F0E863-B576-436C-80B1-6BD5D0D266E1}"/>
+    <hyperlink ref="D95" r:id="rId96" xr:uid="{8EE6F44C-6CC5-4F4D-867E-76DE24472772}"/>
+    <hyperlink ref="D49" r:id="rId97" xr:uid="{DCD74074-7073-4D06-874E-B54655F6F288}"/>
+    <hyperlink ref="D73" r:id="rId98" xr:uid="{2942B82E-F3D0-4D1C-87A8-389738163B43}"/>
+    <hyperlink ref="D97" r:id="rId99" xr:uid="{D8934285-BCDA-44F5-B82F-4469ADAC28B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
